--- a/medicine/Enfance/Étoile_d'or_(collection)/Étoile_d'or_(collection).xlsx
+++ b/medicine/Enfance/Étoile_d'or_(collection)/Étoile_d'or_(collection).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89toile_d%27or_(collection)</t>
+          <t>Étoile_d'or_(collection)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Étoile d'or est une collection française de romans pour la jeunesse, parue de 1965 à  1970 aux éditions des Deux coqs d'or.
 Créée par les éditions américaines Western Publishing sous la marque « Golden Press », elle a été exportée en Europe dans les pays suivants : 
@@ -489,7 +501,7 @@
 au Royaume-Uni, sous le nom de « Gold Star library » (éditions Golden Pleasure)
 aux Pays-Bas, sous le nom de "Gouden Haantjes" (editions Cantecleer / Otto Maier)
 en France, sous le nom « Étoile d'or » (éditions Deux coqs d'or)
-En France, les volumes commencent à paraître en 1965. Cependant, une collection antérieure intitulée Aventures dans l'espace a brièvement existé en 1958 et 1959, avec des titres de Willy Ley et Joseph Greene[1] (ses titres ont été réédités dans la collection « Étoile d'or »). 
+En France, les volumes commencent à paraître en 1965. Cependant, une collection antérieure intitulée Aventures dans l'espace a brièvement existé en 1958 et 1959, avec des titres de Willy Ley et Joseph Greene (ses titres ont été réédités dans la collection « Étoile d'or »). 
 De 1972 à 1974 la collection "Super Étoile d'or" succède à la collection "Étoile d'or"
 </t>
         </is>
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89toile_d%27or_(collection)</t>
+          <t>Étoile_d'or_(collection)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,7 +531,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cartonnés, les 105 volumes de la collection Étoile d'or se caractérisent par leur petite taille : 10 x 12,5 cm. 
 Deux séries partagent des classes d'âge (l'âge est indiqué au verso des premiers volumes) :
@@ -527,7 +541,7 @@
 à dos rouge : de 10 à 14 ans (50 volumes).
 La collection Super Étoile d'or "pour tous les jeunes à partir de 10 ans" succède à la série rouge en 1973-1974 (taille: 11x17.3 cm). Elle est composée de 12 volumes.
 La numérotation est visible au dos des volumes des deux collections. 
-La « série bleue » propose des contes et des récits animaliers, d'auteurs français ou étrangers. Elle publiera également des livres autour des personnages de Disney[2].
+La « série bleue » propose des contes et des récits animaliers, d'auteurs français ou étrangers. Elle publiera également des livres autour des personnages de Disney.
 La « série rouge » propose des récits d'action et d'aventures, certains plus destinés aux filles et d'autres plutôt aux garçons. Elle adapte de grands classiques tout en publiant des inédits essentiellement traduits de l'anglais.
 La collection "Super Étoile d'or" succède à la série rouge avec des récits d'action et d'aventures. Deux volumes sur douze sont des romans, les dix autres réunissent de deux à quatre nouvelles. Cette courte collection se décline en six séries (Aventure pour les n°1, 5 et 10; Policier pour les n°2 et 11; Environnement pour les n°3 et 8; Insolite pour les n°4 et 12; Épopée pour les n°6 et 9; et Espionnage pour le n°7).
 </t>
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89toile_d%27or_(collection)</t>
+          <t>Étoile_d'or_(collection)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,11 +572,48 @@
           <t>Titres parus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste exhaustive.
-Série bleue
-no 1 - Animaux, Georges duplex, 1965
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste exhaustive.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Étoile_d'or_(collection)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89toile_d%27or_(collection)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Titres parus</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série bleue</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>no 1 - Animaux, Georges duplex, 1965
 no 2 - Merlin l'enchanteur, Walt Disney, 1965
 no 4 - Les 101 Dalmatiens, Walt Disney, 1965
 no 9 - Blanche-Neige, Walt Disney, 1965
@@ -616,9 +667,43 @@
 no 99 - Le Petit Chien matelot, Alain Martial, 1970
 no 101 - Les Nouvelles Aventures de renart le goupil, 1970
 no 102 - Contes du dimanche, Guy Martin, 1970
-no 104 - Les Ratons laveurs font le tour du monde, 1970
-Série rouge
-no 03 - Robinson Crusoé, Daniel Defoe, 1965
+no 104 - Les Ratons laveurs font le tour du monde, 1970</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Étoile_d'or_(collection)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89toile_d%27or_(collection)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Titres parus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série rouge</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>no 03 - Robinson Crusoé, Daniel Defoe, 1965
 no 05 - L'Incendie mystérieux (série kathy martin, infirmière), Josephine James, 1965
 no 06 - La Mine fantôme (série kathy martin, infirmière), Josephine James, 1965
 no 07 - L'Île au trésor, Robert Louis Stevenson, 1965
@@ -667,9 +752,43 @@
 no 96 - Le Village abandonné, Henriette Robitaillie, 1969
 no 100 - Le Rallye des benjamins, Alain Grée, 1970
 no 103 - La Case de l'oncle Tom, Harriet Beecher Stowe, 1970
-no 105 - La Sorcière masquée (série "Kathy Martin, infirmière"), Josephine James, 1970
-Super Étoile d'or
-no 01 - Le mystère de la Vallée Perdue, Sheila Austin, 1973
+no 105 - La Sorcière masquée (série "Kathy Martin, infirmière"), Josephine James, 1970</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Étoile_d'or_(collection)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89toile_d%27or_(collection)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Titres parus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Super Étoile d'or</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>no 01 - Le mystère de la Vallée Perdue, Sheila Austin, 1973
 no 02 - Course contre la montre, Lee Mayne, suivi de Les espions sous la mer, Geoffrey Cowan, et de En jouant au plus fin, Tom Stirling,  1973
 no 03 - SOS caravaning, Peter Grey, suivi de "Tu ne feras jamais un marin", Robert Bateman, 1973
 no 04 - Le perroquet bleu, Sydney Philips, suivi de La cachette introuvable, Anne Wade, de Étrange gisement, J.A. Storrie, et de Le retour du corbeau, James Garnett, 1973
